--- a/dados/Dicionário-Base-Moradores-PDAD-2.xlsx
+++ b/dados/Dicionário-Base-Moradores-PDAD-2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\BASE PDAD 2015\microdados_para_o_site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.233.35.11\u36072\curso_r\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>CD_SEQ_DOM</t>
   </si>
@@ -32,12 +32,6 @@
     <t>SEQUÊNCIA</t>
   </si>
   <si>
-    <t>DT_DOM_ANO</t>
-  </si>
-  <si>
-    <t>ANO DA PESQUISA</t>
-  </si>
-  <si>
     <t>A01_DOM_RA</t>
   </si>
   <si>
@@ -48,12 +42,6 @@
   </si>
   <si>
     <t>Nº DO SETOR DA RA</t>
-  </si>
-  <si>
-    <t>A03_DOM_FICHA</t>
-  </si>
-  <si>
-    <t>Nº DA FICHA</t>
   </si>
   <si>
     <t>A04_DOM_SETOR_CENSITARIO</t>
@@ -696,11 +684,26 @@
   <si>
     <t>VALORES</t>
   </si>
+  <si>
+    <t>PESO_PRE</t>
+  </si>
+  <si>
+    <t>INVERSO DA FRAÇÃO AMOSTRAL</t>
+  </si>
+  <si>
+    <t>POPULACAO_AJUSTADA</t>
+  </si>
+  <si>
+    <t>ESTIMATIVA DA POPULAÇÃO</t>
+  </si>
+  <si>
+    <t>ESTRATO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,7 +729,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -820,54 +823,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -893,15 +853,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,7 +873,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -960,7 +911,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1032,7 +983,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1182,9 +1133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1195,13 +1148,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,25 +1166,25 @@
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1260,25 +1213,29 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1286,21 +1243,19 @@
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1308,19 +1263,21 @@
         <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1328,10 +1285,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1339,10 +1296,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -1350,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -1361,10 +1318,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
@@ -1372,10 +1329,10 @@
         <v>33</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1383,10 +1340,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -1394,10 +1351,10 @@
         <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -1405,10 +1362,10 @@
         <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -1416,10 +1373,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1427,10 +1384,10 @@
         <v>43</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="405" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1438,21 +1395,21 @@
         <v>45</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -1460,21 +1417,21 @@
         <v>49</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="330" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -1482,10 +1439,10 @@
         <v>53</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1493,10 +1450,10 @@
         <v>55</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -1504,10 +1461,10 @@
         <v>57</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -1515,10 +1472,10 @@
         <v>59</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
@@ -1526,10 +1483,10 @@
         <v>61</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -1537,10 +1494,10 @@
         <v>63</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -1548,39 +1505,50 @@
         <v>65</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
@@ -1599,12 +1567,6 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
